--- a/cross_border.xlsx
+++ b/cross_border.xlsx
@@ -458,73 +458,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-22.35199928283691</v>
+        <v>9.529000282287598</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1040</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Godda -&gt; Bangladesh</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.26200008392334</v>
+        <v>-15.07999992370605</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-731.4600219726562</v>
+        <v>-767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Godda -&gt; Bangladesh</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-25.61000061035156</v>
+        <v>-14.0019998550415</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1445</v>
+        <v>-1021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.740000009536743</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>205</v>
+        <v>238.7019958496094</v>
       </c>
     </row>
   </sheetData>
